--- a/base.xlsx
+++ b/base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yakuccv\Dropbox\Conferenicas\StringR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{458A08DC-A5F4-4172-9C00-535474FF2D23}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DADFA8B-FF3B-4155-BF43-BA7774B37542}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,9 +166,6 @@
     <t>Quiero colaborar con un auspicio y/o espacio para realizar las reuniones</t>
   </si>
   <si>
-    <t xml:space="preserve">Dennis Muñoz </t>
-  </si>
-  <si>
     <t>Ninguna</t>
   </si>
   <si>
@@ -415,12 +412,6 @@
     <t xml:space="preserve">Estefkny klexkndrk Chickizk Congo </t>
   </si>
   <si>
-    <t>Kelly Ckmilk Centeno klvekr</t>
-  </si>
-  <si>
-    <t>Kkrink Elizkbeth Cruz Pillkjo</t>
-  </si>
-  <si>
     <t>Ruth Melkny Lkglk Bedon</t>
   </si>
   <si>
@@ -596,6 +587,15 @@
   </si>
   <si>
     <t>YESEÑk BERENICE MUÑOZ CkRRkNCO</t>
+  </si>
+  <si>
+    <t>Kelly      Ckmilk     Centeno      klvekr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kkrink Elizkbeth Cruz Pillkjo                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Dennis Muñoz </t>
   </si>
 </sst>
 </file>
@@ -958,7 +958,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -996,7 +996,7 @@
         <v>43179.938656770828</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -1019,7 +1019,7 @@
         <v>43179.947301238426</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -1059,7 +1059,7 @@
         <v>43179.962484814816</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -1079,7 +1079,7 @@
         <v>43180.010615300926</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>11</v>
@@ -1099,7 +1099,7 @@
         <v>43180.271875601851</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -1122,7 +1122,7 @@
         <v>43180.361999039349</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -1142,7 +1142,7 @@
         <v>43180.374044722223</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>11</v>
@@ -1162,7 +1162,7 @@
         <v>43180.383625011571</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>11</v>
@@ -1185,7 +1185,7 @@
         <v>43180.387863159718</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -1208,7 +1208,7 @@
         <v>43180.393304502315</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>11</v>
@@ -1231,7 +1231,7 @@
         <v>43180.39528611111</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>11</v>
@@ -1251,7 +1251,7 @@
         <v>43180.400779212963</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>6</v>
@@ -1271,7 +1271,7 @@
         <v>43180.40493611111</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>11</v>
@@ -1291,7 +1291,7 @@
         <v>43180.408898113426</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
@@ -1311,7 +1311,7 @@
         <v>43180.455917673607</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>11</v>
@@ -1331,7 +1331,7 @@
         <v>43180.479541643523</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
@@ -1351,7 +1351,7 @@
         <v>43180.484642268522</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>11</v>
@@ -1371,7 +1371,7 @@
         <v>43180.496041562496</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
@@ -1391,7 +1391,7 @@
         <v>43180.500455439818</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
@@ -1411,7 +1411,7 @@
         <v>43180.5304678588</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>11</v>
@@ -1434,7 +1434,7 @@
         <v>43180.5310215625</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
@@ -1457,7 +1457,7 @@
         <v>43180.613275694443</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
@@ -1480,7 +1480,7 @@
         <v>43180.618872094907</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>11</v>
@@ -1503,7 +1503,7 @@
         <v>43180.629213900465</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>43180.637504930557</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>6</v>
@@ -1549,7 +1549,7 @@
         <v>43180.650723298611</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>26</v>
@@ -1572,7 +1572,7 @@
         <v>43180.66204127315</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>18</v>
@@ -1595,7 +1595,7 @@
         <v>43180.670375694448</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>6</v>
@@ -1615,7 +1615,7 @@
         <v>43180.677173356482</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>6</v>
@@ -1638,7 +1638,7 @@
         <v>43180.679916620371</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>6</v>
@@ -1661,7 +1661,7 @@
         <v>43180.706772199075</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>6</v>
@@ -1684,7 +1684,7 @@
         <v>43180.707667268522</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>26</v>
@@ -1707,7 +1707,7 @@
         <v>43180.710559780091</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>26</v>
@@ -1730,7 +1730,7 @@
         <v>43180.711152361109</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>11</v>
@@ -1753,7 +1753,7 @@
         <v>43180.717154930557</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>6</v>
@@ -1776,7 +1776,7 @@
         <v>43180.729922812505</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>6</v>
@@ -1796,7 +1796,7 @@
         <v>43180.749482326384</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>18</v>
@@ -1819,7 +1819,7 @@
         <v>43180.7557968287</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>18</v>
@@ -1842,7 +1842,7 @@
         <v>43180.756509027779</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>26</v>
@@ -1862,7 +1862,7 @@
         <v>43180.76249252315</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>6</v>
@@ -1885,7 +1885,7 @@
         <v>43180.762641898153</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>11</v>
@@ -1908,7 +1908,7 @@
         <v>43180.764006180558</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>6</v>
@@ -1931,7 +1931,7 @@
         <v>43180.779115486112</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>6</v>
@@ -1954,7 +1954,7 @@
         <v>43180.786906886569</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>26</v>
@@ -1974,7 +1974,7 @@
         <v>43180.792216875001</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>6</v>
@@ -1997,7 +1997,7 @@
         <v>43180.814185219904</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>6</v>
@@ -2017,7 +2017,7 @@
         <v>43180.820049236107</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>6</v>
@@ -2037,7 +2037,7 @@
         <v>43180.829825925925</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>6</v>
@@ -2057,7 +2057,7 @@
         <v>43180.836237488431</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>11</v>
@@ -2077,7 +2077,7 @@
         <v>43180.842406134259</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>26</v>
@@ -2092,7 +2092,7 @@
         <v>12</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -2100,7 +2100,7 @@
         <v>43180.929579502314</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>11</v>
@@ -2115,7 +2115,7 @@
         <v>12</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -2123,7 +2123,7 @@
         <v>43180.931700567133</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>6</v>
@@ -2143,7 +2143,7 @@
         <v>43180.944689965283</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>11</v>
@@ -2158,7 +2158,7 @@
         <v>12</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -2166,7 +2166,7 @@
         <v>43181.24544377315</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>18</v>
@@ -2186,7 +2186,7 @@
         <v>43181.399945613426</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>18</v>
@@ -2201,7 +2201,7 @@
         <v>12</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -2209,7 +2209,7 @@
         <v>43181.409216782413</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>6</v>
@@ -2224,7 +2224,7 @@
         <v>12</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -2252,7 +2252,7 @@
         <v>43181.482539375</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>11</v>
@@ -2272,7 +2272,7 @@
         <v>43181.490883819446</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>6</v>
@@ -2287,7 +2287,7 @@
         <v>12</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -2295,7 +2295,7 @@
         <v>43181.518472766205</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>6</v>
@@ -2315,7 +2315,7 @@
         <v>43181.525435810181</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>6</v>
@@ -2330,7 +2330,7 @@
         <v>12</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -2338,7 +2338,7 @@
         <v>43181.528094537032</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>6</v>
@@ -2353,7 +2353,7 @@
         <v>12</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -2361,7 +2361,7 @@
         <v>43181.612005706018</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>11</v>
@@ -2376,7 +2376,7 @@
         <v>12</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -2384,7 +2384,7 @@
         <v>43181.676461365743</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>6</v>
@@ -2404,13 +2404,13 @@
         <v>43181.695135902773</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>16</v>
@@ -2429,7 +2429,7 @@
         <v>43181.708379537042</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>6</v>
@@ -2444,7 +2444,7 @@
         <v>12</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -2452,7 +2452,7 @@
         <v>43181.80888251157</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>26</v>
@@ -2472,7 +2472,7 @@
         <v>43181.825001192134</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>6</v>
@@ -2492,7 +2492,7 @@
         <v>43181.898765138889</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>6</v>
@@ -2512,7 +2512,7 @@
         <v>43181.900036967592</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>11</v>
@@ -2532,7 +2532,7 @@
         <v>43181.914170219912</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>6</v>
@@ -2547,7 +2547,7 @@
         <v>12</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -2555,7 +2555,7 @@
         <v>43181.941424282406</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>26</v>
@@ -2570,7 +2570,7 @@
         <v>12</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -2578,7 +2578,7 @@
         <v>43181.968368321759</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>6</v>
@@ -2601,7 +2601,7 @@
         <v>43182.111604907404</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>11</v>
@@ -2621,7 +2621,7 @@
         <v>43182.377428113425</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>11</v>
@@ -2636,7 +2636,7 @@
         <v>47</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -2644,7 +2644,7 @@
         <v>43182.43797668982</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>6</v>
@@ -2656,10 +2656,10 @@
         <v>14</v>
       </c>
       <c r="F79" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G79" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -2667,7 +2667,7 @@
         <v>43182.478759745369</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>18</v>
@@ -2687,7 +2687,7 @@
         <v>43182.547443935182</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>18</v>
@@ -2702,7 +2702,7 @@
         <v>9</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -2710,7 +2710,7 @@
         <v>43182.665538923611</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>6</v>
@@ -2725,7 +2725,7 @@
         <v>12</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -2733,7 +2733,7 @@
         <v>43182.667249189813</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>6</v>
@@ -2748,7 +2748,7 @@
         <v>12</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -2756,7 +2756,7 @@
         <v>43182.676361122685</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>11</v>
@@ -2776,7 +2776,7 @@
         <v>43182.686355659724</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>11</v>
@@ -2791,7 +2791,7 @@
         <v>12</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -2799,7 +2799,7 @@
         <v>43182.690774872681</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>6</v>
@@ -2814,7 +2814,7 @@
         <v>12</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -2822,7 +2822,7 @@
         <v>43182.723780625005</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>6</v>
@@ -2842,7 +2842,7 @@
         <v>43182.836829548614</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>18</v>
@@ -2862,7 +2862,7 @@
         <v>43182.838529201385</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>18</v>
@@ -2882,7 +2882,7 @@
         <v>43183.055051157411</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>6</v>
@@ -2902,7 +2902,7 @@
         <v>43183.056483518521</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>18</v>
@@ -2922,7 +2922,7 @@
         <v>43183.334742789353</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>6</v>
@@ -2942,7 +2942,7 @@
         <v>43183.417412557872</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>18</v>
@@ -2957,7 +2957,7 @@
         <v>12</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -2965,7 +2965,7 @@
         <v>43183.432605729162</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>18</v>
@@ -2985,7 +2985,7 @@
         <v>43183.457829571758</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>6</v>
@@ -3000,7 +3000,7 @@
         <v>12</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -3008,7 +3008,7 @@
         <v>43183.569072569444</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>6</v>
@@ -3028,7 +3028,7 @@
         <v>43183.662757835649</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>26</v>
@@ -3043,7 +3043,7 @@
         <v>12</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -3051,7 +3051,7 @@
         <v>43183.944435104167</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>11</v>
@@ -3066,7 +3066,7 @@
         <v>12</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -3074,7 +3074,7 @@
         <v>43184.708839004626</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>6</v>
@@ -3094,7 +3094,7 @@
         <v>43184.713453356482</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>18</v>
@@ -3109,7 +3109,7 @@
         <v>12</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -3117,7 +3117,7 @@
         <v>43184.745682071763</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>6</v>
@@ -3137,7 +3137,7 @@
         <v>43184.900012754631</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>6</v>
@@ -3152,7 +3152,7 @@
         <v>12</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -3160,7 +3160,7 @@
         <v>43184.967943391202</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>26</v>
@@ -3180,7 +3180,7 @@
         <v>43185.354953819449</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>6</v>
@@ -3200,22 +3200,22 @@
         <v>43185.402446504631</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -3223,7 +3223,7 @@
         <v>43185.447588645839</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>11</v>
@@ -3238,7 +3238,7 @@
         <v>12</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -3246,7 +3246,7 @@
         <v>43185.450737465275</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>6</v>
@@ -3261,7 +3261,7 @@
         <v>12</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -3269,7 +3269,7 @@
         <v>43185.450902199074</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>6</v>
@@ -3284,7 +3284,7 @@
         <v>12</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -3292,7 +3292,7 @@
         <v>43185.450987233795</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>6</v>
@@ -3307,7 +3307,7 @@
         <v>12</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -3315,7 +3315,7 @@
         <v>43185.46884681713</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>11</v>
@@ -3335,7 +3335,7 @@
         <v>43185.502283148147</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>6</v>
@@ -3350,7 +3350,7 @@
         <v>12</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -3358,7 +3358,7 @@
         <v>43185.534268900461</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>6</v>
@@ -3373,7 +3373,7 @@
         <v>12</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -3381,7 +3381,7 @@
         <v>43185.608597129627</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>6</v>
@@ -3401,7 +3401,7 @@
         <v>43185.632502546301</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>11</v>
@@ -3421,7 +3421,7 @@
         <v>43185.728154861106</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>11</v>
@@ -3436,7 +3436,7 @@
         <v>12</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
@@ -3444,7 +3444,7 @@
         <v>43185.728230613429</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>18</v>
@@ -3464,7 +3464,7 @@
         <v>43185.79295368056</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>18</v>
@@ -3479,7 +3479,7 @@
         <v>12</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/base.xlsx
+++ b/base.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yakuccv\Dropbox\Conferenicas\StringR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DADFA8B-FF3B-4155-BF43-BA7774B37542}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FD3CE7-986B-427C-9111-8D5E3A40AA40}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="195">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -277,9 +277,6 @@
     <t xml:space="preserve">Mk Gkbrielk erkzo ckmpos </t>
   </si>
   <si>
-    <t xml:space="preserve">klexkndrk Yánez </t>
-  </si>
-  <si>
     <t>Gkbrielk Fernkndk Moyk Mkrckllk</t>
   </si>
   <si>
@@ -596,6 +593,18 @@
   </si>
   <si>
     <t xml:space="preserve">   Dennis Muñoz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mk       Gkbrielk      erkzo       ckmpos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">klexkndrk Yánez                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   Lizbeth Jimenez P.</t>
+  </si>
+  <si>
+    <t>Cedula</t>
   </si>
 </sst>
 </file>
@@ -954,21 +963,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="14" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -976,2509 +986,2860 @@
         <v>83</v>
       </c>
       <c r="C1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43179.938656770828</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>191</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1922892197</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43179.947301238426</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="2">
+        <v>53540507</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43179.952414942134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1427910091</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43179.962484814816</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>85</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1685052742</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43180.010615300926</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2067143247</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43180.271875601851</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>87</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1775013610</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43180.361999039349</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>88</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1389801167</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43180.374044722223</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1148100651</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43180.383625011571</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2092800482</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43180.387863159718</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="2">
+        <v>546482669</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43180.393304502315</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="2">
+        <v>202500897</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43180.39528611111</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1731926195</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43180.400779212963</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>94</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1880320602</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43180.40493611111</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2288366596</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43180.408898113426</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2394572583</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43180.455917673607</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="2">
+        <v>772664600</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43180.479541643523</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2229365748</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43180.484642268522</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1292653617</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43180.496041562496</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1960120408</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43180.500455439818</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="2">
+        <v>378561305</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43180.5304678588</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2493190325</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="G22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43180.5310215625</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1364566988</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="G23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43180.613275694443</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C24" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1752900479</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43180.618872094907</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1381003489</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="G25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43180.629213900465</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="2">
+        <v>828253697</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43180.637504930557</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>6</v>
+        <v>107</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1940818766</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="G27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43180.650723298611</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="2">
+        <v>887601849</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43180.66204127315</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C29" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" s="2">
+        <v>394860760</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="G29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43180.670375694448</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>6</v>
+        <v>110</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1042471166</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43180.677173356482</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>6</v>
+        <v>111</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1436889371</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43180.679916620371</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>6</v>
+        <v>112</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1520377155</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43180.706772199075</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>6</v>
+        <v>113</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2194129359</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="G33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43180.707667268522</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="2">
+        <v>638568801</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="G34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43180.710559780091</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1123651702</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="G35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43180.711152361109</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2097997115</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43180.717154930557</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>6</v>
+        <v>117</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1877872619</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43180.729922812505</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>6</v>
+        <v>118</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1157424160</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43180.749482326384</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1429819043</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43180.7557968287</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="2">
+        <v>189836840</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E40" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43180.756509027779</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1543316178</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E41" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43180.76249252315</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>6</v>
+        <v>122</v>
+      </c>
+      <c r="C42" s="2">
+        <v>173692363</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43180.762641898153</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C43" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1433341904</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="G43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43180.764006180558</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>6</v>
+        <v>124</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1228241219</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43180.779115486112</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>6</v>
+        <v>125</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2104857692</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43180.786906886569</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="2">
+        <v>2149178696</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43180.792216875001</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>6</v>
+        <v>127</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1377231113</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43180.814185219904</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>6</v>
+        <v>128</v>
+      </c>
+      <c r="C48" s="2">
+        <v>924910793</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43180.820049236107</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>6</v>
+        <v>188</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1903185261</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G49" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43180.829825925925</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>6</v>
+        <v>189</v>
+      </c>
+      <c r="C50" s="2">
+        <v>213618822</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43180.836237488431</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C51" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C51" s="2">
+        <v>747034260</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E51" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43180.842406134259</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C52" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1136442753</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43180.929579502314</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C53" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1491927619</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E53" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43180.931700567133</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>6</v>
+        <v>131</v>
+      </c>
+      <c r="C54" s="2">
+        <v>799122163</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43180.944689965283</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C55" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1908106965</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E55" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43181.24544377315</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C56" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1921869891</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43181.399945613426</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C57" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1217900744</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="G57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43181.409216782413</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>6</v>
+        <v>134</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2132806971</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43181.422613425922</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="2">
+        <v>38418440</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E59" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43181.482539375</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C60" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1144740563</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G60" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43181.490883819446</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>6</v>
+        <v>136</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1785445411</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43181.518472766205</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>6</v>
+        <v>137</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1494388857</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43181.525435810181</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>6</v>
+        <v>138</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1829373191</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E63" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="G63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43181.528094537032</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>6</v>
+        <v>136</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1004518941</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43181.612005706018</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C65" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1148259952</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="G65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43181.676461365743</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>6</v>
+        <v>140</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1724272798</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43181.695135902773</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>6</v>
+        <v>141</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1083534165</v>
       </c>
       <c r="D67" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="F67" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G67" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43181.695241388894</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C68" s="2">
+        <v>334326490</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43181.708379537042</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>6</v>
+        <v>142</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1392951061</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43181.80888251157</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C70" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" s="2">
+        <v>1976527034</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E70" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43181.825001192134</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>6</v>
+        <v>144</v>
+      </c>
+      <c r="C71" s="2">
+        <v>535783945</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43181.898765138889</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>6</v>
+        <v>145</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1150295250</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43181.900036967592</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C73" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1636830428</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G73" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43181.914170219912</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>6</v>
+        <v>147</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1612174233</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43181.941424282406</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C75" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C75" s="2">
+        <v>810531076</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D75" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E75" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43181.968368321759</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>6</v>
+      <c r="C76" s="2">
+        <v>1539236632</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="H76" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43182.111604907404</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C77" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77" s="2">
+        <v>352267423</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G77" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43182.377428113425</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C78" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C78" s="2">
+        <v>878170462</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E78" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="H78" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43182.43797668982</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>6</v>
+        <v>151</v>
+      </c>
+      <c r="C79" s="2">
+        <v>2041912390</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="G79" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="H79" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43182.478759745369</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C80" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="2">
+        <v>953685895</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43182.547443935182</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C81" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C81" s="2">
+        <v>890014752</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E81" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="H81" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43182.665538923611</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>6</v>
+        <v>154</v>
+      </c>
+      <c r="C82" s="2">
+        <v>2263831130</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F82" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="G82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43182.667249189813</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>6</v>
+        <v>155</v>
+      </c>
+      <c r="C83" s="2">
+        <v>2128945315</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43182.676361122685</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C84" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C84" s="2">
+        <v>1828116421</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E84" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43182.686355659724</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C85" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C85" s="2">
+        <v>2259863180</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E85" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="G85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43182.690774872681</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>6</v>
+        <v>158</v>
+      </c>
+      <c r="C86" s="2">
+        <v>482385429</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43182.723780625005</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>6</v>
+        <v>159</v>
+      </c>
+      <c r="C87" s="2">
+        <v>1863847890</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>43182.836829548614</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C88" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C88" s="2">
+        <v>114473905</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E88" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43182.838529201385</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C89" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C89" s="2">
+        <v>54726568</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>43183.055051157411</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>6</v>
+        <v>162</v>
+      </c>
+      <c r="C90" s="2">
+        <v>396912573</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>43183.056483518521</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C91" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C91" s="2">
+        <v>1001012417</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E91" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>43183.334742789353</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>6</v>
+        <v>164</v>
+      </c>
+      <c r="C92" s="2">
+        <v>1604953893</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>43183.417412557872</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C93" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C93" s="2">
+        <v>1624507881</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E93" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F93" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="G93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>43183.432605729162</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C94" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C94" s="2">
+        <v>713530736</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G94" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>43183.457829571758</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>6</v>
+        <v>167</v>
+      </c>
+      <c r="C95" s="2">
+        <v>763183450</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>43183.569072569444</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>6</v>
+        <v>168</v>
+      </c>
+      <c r="C96" s="2">
+        <v>349095381</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>43183.662757835649</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C97" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C97" s="2">
+        <v>79559731</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="G97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>43183.944435104167</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C98" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C98" s="2">
+        <v>1161773553</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E98" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>43184.708839004626</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>6</v>
+        <v>171</v>
+      </c>
+      <c r="C99" s="2">
+        <v>796785189</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>43184.713453356482</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C100" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C100" s="2">
+        <v>658124804</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E100" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>43184.745682071763</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>6</v>
+        <v>173</v>
+      </c>
+      <c r="C101" s="2">
+        <v>483625831</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E101" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F101" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G101" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>43184.900012754631</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>6</v>
+        <v>174</v>
+      </c>
+      <c r="C102" s="2">
+        <v>1711407733</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>43184.967943391202</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C103" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C103" s="2">
+        <v>987703155</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D103" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E103" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>43185.354953819449</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>6</v>
+        <v>176</v>
+      </c>
+      <c r="C104" s="2">
+        <v>1906995441</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>43185.402446504631</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>6</v>
+        <v>177</v>
+      </c>
+      <c r="C105" s="2">
+        <v>1672542159</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="F105" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>43185.447588645839</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C106" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C106" s="2">
+        <v>2104385673</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E106" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F106" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="G106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>43185.450737465275</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>6</v>
+        <v>179</v>
+      </c>
+      <c r="C107" s="2">
+        <v>766504102</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>43185.450902199074</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>6</v>
+        <v>179</v>
+      </c>
+      <c r="C108" s="2">
+        <v>855852003</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>43185.450987233795</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>6</v>
+        <v>179</v>
+      </c>
+      <c r="C109" s="2">
+        <v>1208547938</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>43185.46884681713</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C110" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C110" s="2">
+        <v>264303001</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D110" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E110" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>43185.502283148147</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>6</v>
+        <v>181</v>
+      </c>
+      <c r="C111" s="2">
+        <v>343771928</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>43185.534268900461</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>6</v>
+        <v>182</v>
+      </c>
+      <c r="C112" s="2">
+        <v>839129095</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E112" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="G112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>43185.608597129627</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>6</v>
+        <v>183</v>
+      </c>
+      <c r="C113" s="2">
+        <v>1093848751</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>43185.632502546301</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C114" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C114" s="2">
+        <v>1505865406</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E114" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F114" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G114" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>43185.728154861106</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C115" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C115" s="2">
+        <v>1005009482</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D115" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E115" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>43185.728230613429</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C116" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C116" s="2">
+        <v>1522107809</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E116" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F116" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F116" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G116" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>43185.79295368056</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C117" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C117" s="2">
+        <v>802787972</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E117" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" s="2" t="s">
         <v>82</v>
       </c>
     </row>
